--- a/assets/docs/logDefectos.xlsx
+++ b/assets/docs/logDefectos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2A586AE-2622-433A-B779-E9BDD3D3F3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F370003-C33B-4B4E-8F34-B22CAAEAF1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="37">
   <si>
     <t>Universidad Piloto de Colombia</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Estudiante</t>
-  </si>
-  <si>
-    <t>Santiago Chávez López</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -115,6 +112,30 @@
   </si>
   <si>
     <t>Diagrama de clases</t>
+  </si>
+  <si>
+    <t>DEF-005</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Implementacion</t>
+  </si>
+  <si>
+    <t>Nicolas Calvo</t>
+  </si>
+  <si>
+    <t>Se arreglo el maestro de documento</t>
+  </si>
+  <si>
+    <t>Se modifico la Pagina Web</t>
+  </si>
+  <si>
+    <t>Se realizo la correccion del Diagrama de clases</t>
+  </si>
+  <si>
+    <t>Se realizo implementacion y correcion en el codigo</t>
   </si>
 </sst>
 </file>
@@ -216,15 +237,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -447,8 +468,8 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -456,16 +477,16 @@
     <col min="1" max="25" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:25" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -485,16 +506,16 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:25" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -541,13 +562,13 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -629,11 +650,11 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="4">
         <v>45913</v>
@@ -660,17 +681,17 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -697,10 +718,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -778,25 +799,25 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -817,19 +838,19 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="7"/>
@@ -850,20 +871,20 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -879,18 +900,18 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -933,25 +954,25 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -967,24 +988,24 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="8">
         <v>45922</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="7"/>
@@ -1005,20 +1026,22 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1034,18 +1057,18 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1088,25 +1111,25 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1122,24 +1145,24 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="8">
         <v>45925</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="7"/>
@@ -1160,20 +1183,22 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1189,18 +1214,18 @@
     </row>
     <row r="25" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1243,25 +1268,25 @@
     </row>
     <row r="27" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -1277,24 +1302,24 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="8">
         <v>45925</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="7"/>
@@ -1315,20 +1340,22 @@
     </row>
     <row r="29" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="B29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1344,18 +1371,18 @@
     </row>
     <row r="30" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -1398,25 +1425,25 @@
     </row>
     <row r="32" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -1432,15 +1459,25 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="8">
+        <v>45930</v>
+      </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="7"/>
+      <c r="I33" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="7"/>
       <c r="L33" s="1"/>
@@ -1460,20 +1497,22 @@
     </row>
     <row r="34" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -1489,18 +1528,18 @@
     </row>
     <row r="35" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -1543,25 +1582,25 @@
     </row>
     <row r="37" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -1605,20 +1644,20 @@
     </row>
     <row r="39" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -1634,18 +1673,18 @@
     </row>
     <row r="40" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -1688,25 +1727,25 @@
     </row>
     <row r="42" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -1750,20 +1789,20 @@
     </row>
     <row r="44" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -1779,18 +1818,18 @@
     </row>
     <row r="45" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -1833,25 +1872,25 @@
     </row>
     <row r="47" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="M47" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -1895,20 +1934,20 @@
     </row>
     <row r="49" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -1924,18 +1963,18 @@
     </row>
     <row r="50" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -1978,25 +2017,25 @@
     </row>
     <row r="52" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="M52" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -2040,20 +2079,20 @@
     </row>
     <row r="54" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -2069,18 +2108,18 @@
     </row>
     <row r="55" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -2123,25 +2162,25 @@
     </row>
     <row r="57" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -2185,20 +2224,20 @@
     </row>
     <row r="59" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -2214,18 +2253,18 @@
     </row>
     <row r="60" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -2268,25 +2307,25 @@
     </row>
     <row r="62" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -2330,20 +2369,20 @@
     </row>
     <row r="64" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -2359,18 +2398,18 @@
     </row>
     <row r="65" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -2413,25 +2452,25 @@
     </row>
     <row r="67" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="K67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="M67" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -2475,20 +2514,20 @@
     </row>
     <row r="69" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -2504,18 +2543,18 @@
     </row>
     <row r="70" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>

--- a/assets/docs/logDefectos.xlsx
+++ b/assets/docs/logDefectos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="46">
   <si>
     <t>Universidad Piloto de Colombia</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>Se realizo arreglo para que apareciera las fases de Implementacion y pruebas</t>
+  </si>
+  <si>
+    <t>10/13/2025</t>
+  </si>
+  <si>
+    <t>Def-007</t>
+  </si>
+  <si>
+    <t>Informe de Postmortem</t>
+  </si>
+  <si>
+    <t>Postmortem</t>
+  </si>
+  <si>
+    <t>Se realizo las correciones</t>
   </si>
 </sst>
 </file>
@@ -1673,15 +1688,25 @@
       <c r="Y42" s="2"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="6"/>
+      <c r="A43" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="6"/>
+      <c r="G43" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="6"/>
+      <c r="I43" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="6"/>
       <c r="L43" s="2"/>
@@ -1703,7 +1728,9 @@
       <c r="A44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>

--- a/assets/docs/logDefectos.xlsx
+++ b/assets/docs/logDefectos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="74">
   <si>
     <t>Universidad Piloto de Colombia</t>
   </si>
@@ -27,13 +27,19 @@
     <t>Log de registro de defectos</t>
   </si>
   <si>
+    <t>Fecha</t>
+  </si>
+  <si>
     <t>Estudiante</t>
   </si>
   <si>
     <t>Nicolas Calvo</t>
   </si>
   <si>
-    <t>Fecha</t>
+    <t>Docente</t>
+  </si>
+  <si>
+    <t>Gilberto Pedraza</t>
   </si>
   <si>
     <t>Equipo</t>
@@ -42,12 +48,6 @@
     <t>LogiApp</t>
   </si>
   <si>
-    <t>Docente</t>
-  </si>
-  <si>
-    <t>Gilberto Pedraza</t>
-  </si>
-  <si>
     <t>Proyecto</t>
   </si>
   <si>
@@ -72,6 +72,12 @@
     <t>Iniciacion</t>
   </si>
   <si>
+    <t>1 hora</t>
+  </si>
+  <si>
+    <t>1hora</t>
+  </si>
+  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -126,16 +132,22 @@
     <t>Se arreglo la plantilla de plan de riesgos</t>
   </si>
   <si>
+    <t>Def-006</t>
+  </si>
+  <si>
     <t>Diagrama clase</t>
   </si>
   <si>
     <t>Requirimientos</t>
   </si>
   <si>
+    <t>1hora y media</t>
+  </si>
+  <si>
     <t>Se realizo y se arreglo el diagrama de clase</t>
   </si>
   <si>
-    <t>DEF - 006</t>
+    <t>DEF - 007</t>
   </si>
   <si>
     <t>Plantilla de calidad</t>
@@ -147,7 +159,10 @@
     <t>Diseño</t>
   </si>
   <si>
-    <t>DEF-007</t>
+    <t>Se modifico la plantilla</t>
+  </si>
+  <si>
+    <t>DEF-008</t>
   </si>
   <si>
     <t>Maestro Documento</t>
@@ -159,16 +174,19 @@
     <t>Se arreglo el maestro de documento</t>
   </si>
   <si>
-    <t>DEF-008</t>
+    <t>DEF-009</t>
   </si>
   <si>
     <t>Pagina web</t>
   </si>
   <si>
+    <t>2horas</t>
+  </si>
+  <si>
     <t>Se modifico la Pagina Web</t>
   </si>
   <si>
-    <t>DEF-009</t>
+    <t>DEF-010</t>
   </si>
   <si>
     <t>Diagrama de clases</t>
@@ -177,7 +195,7 @@
     <t>Se realizo la correccion del Diagrama de clases</t>
   </si>
   <si>
-    <t>DEF-010</t>
+    <t>DEF-011</t>
   </si>
   <si>
     <t>Codigo</t>
@@ -186,10 +204,13 @@
     <t>Implementacion</t>
   </si>
   <si>
+    <t>5horas</t>
+  </si>
+  <si>
     <t>Se realizo implementacion y correcion en el codigo</t>
   </si>
   <si>
-    <t>DEF-011</t>
+    <t>DEF-012</t>
   </si>
   <si>
     <t>Pagina Web</t>
@@ -204,13 +225,16 @@
     <t>10/13/2025</t>
   </si>
   <si>
-    <t>Def-012</t>
+    <t>Def-013</t>
   </si>
   <si>
     <t>Informe de Postmortem</t>
   </si>
   <si>
     <t>Postmortem</t>
+  </si>
+  <si>
+    <t>3horas</t>
   </si>
   <si>
     <t>Se realizo las correciones</t>
@@ -288,10 +312,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -300,14 +324,14 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -578,40 +602,44 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45913.0</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>45913.0</v>
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -625,12 +653,8 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
       <c r="G9" s="2"/>
       <c r="I9" s="2" t="s">
         <v>12</v>
@@ -663,32 +687,36 @@
         <v>17</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
@@ -707,16 +735,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>12</v>
@@ -734,47 +762,51 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="2"/>
@@ -793,23 +825,21 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="K19" s="2"/>
       <c r="M19" s="2" t="s">
         <v>14</v>
       </c>
@@ -820,11 +850,11 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="6" t="s">
@@ -835,32 +865,36 @@
         <v>17</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="7"/>
+      <c r="K20" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="2"/>
@@ -879,16 +913,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>12</v>
@@ -906,7 +940,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="6" t="s">
@@ -914,39 +948,43 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="L25" s="2"/>
-      <c r="M25" s="7"/>
+      <c r="M25" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="2"/>
@@ -965,16 +1003,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>12</v>
@@ -992,60 +1030,64 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="7"/>
+      <c r="K30" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="L30" s="2"/>
-      <c r="M30" s="7"/>
+      <c r="M30" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>12</v>
@@ -1063,60 +1105,64 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="7"/>
+      <c r="K36" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="L36" s="2"/>
-      <c r="M36" s="7"/>
+      <c r="M36" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>12</v>
@@ -1129,50 +1175,56 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>45913.0</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="7" t="s">
-        <v>40</v>
+      <c r="E41" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="7" t="s">
-        <v>41</v>
+      <c r="G41" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="7" t="s">
-        <v>42</v>
+      <c r="I41" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="7"/>
+      <c r="K41" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="L41" s="2"/>
-      <c r="M41" s="7"/>
+      <c r="M41" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
     </row>
     <row r="44">
       <c r="A44" s="2"/>
@@ -1191,16 +1243,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>12</v>
@@ -1218,47 +1270,51 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="7" t="s">
-        <v>44</v>
+      <c r="E46" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="7" t="s">
-        <v>45</v>
+      <c r="G46" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="7" t="s">
-        <v>42</v>
+      <c r="I46" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="7"/>
+      <c r="K46" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="L46" s="2"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
     </row>
     <row r="49">
       <c r="A49" s="2"/>
@@ -1277,16 +1333,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>12</v>
@@ -1304,47 +1360,51 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="7" t="s">
-        <v>48</v>
+      <c r="E51" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="7" t="s">
-        <v>42</v>
+      <c r="G51" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="7" t="s">
-        <v>42</v>
+      <c r="I51" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="7"/>
+      <c r="K51" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="L51" s="2"/>
-      <c r="M51" s="7"/>
+      <c r="M51" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
     </row>
     <row r="54">
       <c r="A54" s="2"/>
@@ -1363,16 +1423,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>12</v>
@@ -1390,47 +1450,51 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="7" t="s">
-        <v>51</v>
+      <c r="E56" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="7" t="s">
-        <v>45</v>
+      <c r="G56" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="7" t="s">
-        <v>42</v>
+      <c r="I56" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="J56" s="2"/>
-      <c r="K56" s="7"/>
+      <c r="K56" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="L56" s="2"/>
-      <c r="M56" s="7"/>
+      <c r="M56" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
     </row>
     <row r="59">
       <c r="A59" s="2"/>
@@ -1449,16 +1513,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>12</v>
@@ -1476,47 +1540,51 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D61" s="2"/>
-      <c r="E61" s="7" t="s">
-        <v>54</v>
+      <c r="E61" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="7" t="s">
-        <v>55</v>
+      <c r="G61" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="H61" s="2"/>
-      <c r="I61" s="7" t="s">
-        <v>55</v>
+      <c r="I61" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="J61" s="2"/>
-      <c r="K61" s="7"/>
+      <c r="K61" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="L61" s="2"/>
-      <c r="M61" s="7"/>
+      <c r="M61" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
     </row>
     <row r="64">
       <c r="A64" s="2"/>
@@ -1535,16 +1603,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>12</v>
@@ -1562,47 +1630,51 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J66" s="2"/>
-      <c r="K66" s="7"/>
+      <c r="K66" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="L66" s="2"/>
-      <c r="M66" s="7"/>
+      <c r="M66" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
     </row>
     <row r="69">
       <c r="A69" s="2"/>
@@ -1621,16 +1693,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>12</v>
@@ -1644,60 +1716,58 @@
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J71" s="2"/>
-      <c r="K71" s="7"/>
+      <c r="K71" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="L71" s="2"/>
-      <c r="M71" s="7"/>
+      <c r="M71" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B67:M68"/>
-    <mergeCell ref="B72:M73"/>
-    <mergeCell ref="B42:M43"/>
-    <mergeCell ref="B47:M48"/>
-    <mergeCell ref="B52:M53"/>
-    <mergeCell ref="B57:M58"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B4:D4"/>
@@ -1705,8 +1775,14 @@
     <mergeCell ref="B16:M17"/>
     <mergeCell ref="B21:M22"/>
     <mergeCell ref="B26:M27"/>
+    <mergeCell ref="B67:M68"/>
+    <mergeCell ref="B72:M73"/>
     <mergeCell ref="B31:M32"/>
     <mergeCell ref="B37:M38"/>
+    <mergeCell ref="B42:M43"/>
+    <mergeCell ref="B47:M48"/>
+    <mergeCell ref="B52:M53"/>
+    <mergeCell ref="B57:M58"/>
     <mergeCell ref="B62:M63"/>
   </mergeCells>
   <drawing r:id="rId1"/>

--- a/assets/docs/logDefectos.xlsx
+++ b/assets/docs/logDefectos.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Hoja 2" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Fase 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Fase 2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="nCVbmTB24j5rQuW66j7GaMIDNtXDrImXXSwNMS68t2A="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="AwFSkaBX0fanXvruxC7Rne0Rwkg0m8TMjRZDvzsuLaM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="84">
   <si>
     <t>Universidad Piloto de Colombia</t>
   </si>
@@ -238,6 +239,36 @@
   </si>
   <si>
     <t>Se realizo las correciones</t>
+  </si>
+  <si>
+    <t>Control Asignaciones</t>
+  </si>
+  <si>
+    <t>Iniciacion/Estrategia</t>
+  </si>
+  <si>
+    <t>Se completaron unas cosas en el control de asignaciones</t>
+  </si>
+  <si>
+    <t>Acta de Iniciacion</t>
+  </si>
+  <si>
+    <t>Se le agrego lo que le faltaba</t>
+  </si>
+  <si>
+    <t>PlanAdmin</t>
+  </si>
+  <si>
+    <t>Se agrego lo que faltaba</t>
+  </si>
+  <si>
+    <t>Plan de calidad</t>
+  </si>
+  <si>
+    <t>Requerimiento/Planeacion</t>
+  </si>
+  <si>
+    <t>Se hizo unos cambios</t>
   </si>
 </sst>
 </file>
@@ -302,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -340,6 +371,9 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -349,6 +383,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1787,4 +1825,458 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="23.0"/>
+    <col customWidth="1" min="7" max="7" width="19.75"/>
+    <col customWidth="1" min="9" max="9" width="20.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="13">
+        <v>45968.0</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>45957.0</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>45957.0</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>45957.0</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5">
+        <v>45968.0</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B11:M12"/>
+    <mergeCell ref="B16:M17"/>
+    <mergeCell ref="B21:M22"/>
+    <mergeCell ref="B26:M27"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/assets/docs/logDefectos.xlsx
+++ b/assets/docs/logDefectos.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>Universidad Piloto de Colombia</t>
   </si>
@@ -269,6 +269,30 @@
   </si>
   <si>
     <t>Se hizo unos cambios</t>
+  </si>
+  <si>
+    <t>Plantilla SDS</t>
+  </si>
+  <si>
+    <t>Se realizo unos ajustes</t>
+  </si>
+  <si>
+    <t>11/17/2025</t>
+  </si>
+  <si>
+    <t>Implementacion/Pruebas</t>
+  </si>
+  <si>
+    <t>Se implemento los 3 uso de casos de la fase 2 al codigo</t>
+  </si>
+  <si>
+    <t>Def-007</t>
+  </si>
+  <si>
+    <t>Pruebas Unitaria</t>
+  </si>
+  <si>
+    <t>Se realizo las pruebas unitarias desde la aplicacion</t>
   </si>
 </sst>
 </file>
@@ -280,7 +304,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -299,6 +323,10 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -333,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -373,6 +401,21 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1839,7 +1882,7 @@
   <cols>
     <col customWidth="1" min="5" max="5" width="23.0"/>
     <col customWidth="1" min="7" max="7" width="19.75"/>
-    <col customWidth="1" min="9" max="9" width="20.13"/>
+    <col customWidth="1" min="9" max="9" width="21.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2267,8 +2310,384 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
+    <row r="28">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <v>45972.0</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5">
+        <v>45972.0</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" s="14"/>
+      <c r="K40" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="14"/>
+      <c r="M40" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="14"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="14"/>
+      <c r="K44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" s="14"/>
+      <c r="M44" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="14"/>
+      <c r="I45" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="14"/>
+      <c r="M45" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="14"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="B31:M32"/>
+    <mergeCell ref="B36:M37"/>
+    <mergeCell ref="B41:M42"/>
+    <mergeCell ref="B46:M47"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B4:D4"/>

--- a/assets/docs/logDefectos.xlsx
+++ b/assets/docs/logDefectos.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="AwFSkaBX0fanXvruxC7Rne0Rwkg0m8TMjRZDvzsuLaM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="jYbi2jM+wR4QPJj3NcngYgXygVaDrw07/Kiu5x1PFL4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="101">
   <si>
     <t>Universidad Piloto de Colombia</t>
   </si>
@@ -293,6 +293,33 @@
   </si>
   <si>
     <t>Se realizo las pruebas unitarias desde la aplicacion</t>
+  </si>
+  <si>
+    <t>11/20/2025</t>
+  </si>
+  <si>
+    <t>Def-008</t>
+  </si>
+  <si>
+    <t>Informe Postmortem F2</t>
+  </si>
+  <si>
+    <t>PostMortem</t>
+  </si>
+  <si>
+    <t>PosMortem</t>
+  </si>
+  <si>
+    <t>Se realizo unos cambios al informe</t>
+  </si>
+  <si>
+    <t>Def-009</t>
+  </si>
+  <si>
+    <t>Presentacion Postmortem F2</t>
+  </si>
+  <si>
+    <t>Se le agrego unas cosas a la presentacion</t>
   </si>
 </sst>
 </file>
@@ -2401,82 +2428,88 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="H34" s="14"/>
+      <c r="I34" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="14"/>
+      <c r="K34" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="L34" s="14"/>
+      <c r="M34" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5">
-        <v>45972.0</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="6" t="s">
+      <c r="A35" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35" s="14"/>
+      <c r="K35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="6" t="s">
+      <c r="L35" s="14"/>
+      <c r="M35" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>85</v>
+      <c r="B36" s="18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2540,11 +2573,11 @@
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="16" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="16" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="16" t="s">
@@ -2568,7 +2601,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
@@ -2632,23 +2665,23 @@
     </row>
     <row r="45">
       <c r="A45" s="16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J45" s="14"/>
       <c r="K45" s="17" t="s">
@@ -2664,7 +2697,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47">
@@ -2682,12 +2715,109 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
     </row>
+    <row r="48">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="14"/>
+      <c r="K49" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="14"/>
+      <c r="M49" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J50" s="14"/>
+      <c r="K50" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="14"/>
+      <c r="M50" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="14"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B31:M32"/>
     <mergeCell ref="B36:M37"/>
     <mergeCell ref="B41:M42"/>
     <mergeCell ref="B46:M47"/>
+    <mergeCell ref="B51:M52"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B4:D4"/>
